--- a/sources/corpora_icono/collections.xlsx
+++ b/sources/corpora_icono/collections.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca\Documents\GitHub\SHERLOCK\sources\iiif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca\Documents\GitHub\SHERLOCK\sources\corpora_icono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2B2F02-7C15-4E4A-86F9-03BD44CE8530}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74887B6-7EA0-44FA-BDE4-C979E1A8AFB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DC105B8-4426-416F-89A5-0E95022221EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>MGE</t>
+  </si>
+  <si>
+    <t>modélisation sémantique</t>
+  </si>
+  <si>
+    <t>635f1b1b-322e-4958-88e6-45d1efaed0db</t>
+  </si>
+  <si>
+    <t>efc50e78-f849-4f2f-9ac1-d384f2fa9843</t>
   </si>
 </sst>
 </file>
@@ -150,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +178,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -182,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,6 +228,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3CE6F2-7211-4CDF-9292-163B353D125F}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -552,16 +571,20 @@
     <col min="7" max="7" width="24.109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="38.109375" style="7" customWidth="1"/>
     <col min="9" max="10" width="27" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="17.77734375" style="7"/>
+    <col min="11" max="11" width="17.77734375" style="7"/>
+    <col min="12" max="12" width="20" style="7" customWidth="1"/>
+    <col min="13" max="13" width="40.21875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="41.6640625" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="17.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
       <c r="G2" s="11" t="s">
@@ -573,8 +596,8 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="17.55" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,8 +634,12 @@
       <c r="L4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="M4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -649,8 +676,14 @@
       <c r="L5" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="M5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>

--- a/sources/corpora_icono/collections.xlsx
+++ b/sources/corpora_icono/collections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca\Documents\GitHub\SHERLOCK\sources\corpora_icono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74887B6-7EA0-44FA-BDE4-C979E1A8AFB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF0AEA1-7313-4429-B242-DB3C75C3E0AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DC105B8-4426-416F-89A5-0E95022221EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>efc50e78-f849-4f2f-9ac1-d384f2fa9843</t>
+  </si>
+  <si>
+    <t>développement logiciel</t>
   </si>
 </sst>
 </file>
@@ -197,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,11 +230,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,7 +559,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -587,14 +589,14 @@
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -634,10 +636,12 @@
       <c r="L4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="12"/>
+      <c r="N4" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">

--- a/sources/corpora_icono/collections.xlsx
+++ b/sources/corpora_icono/collections.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca\Documents\GitHub\SHERLOCK\sources\corpora_icono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF0AEA1-7313-4429-B242-DB3C75C3E0AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E9EA49-9029-4036-A813-8CE6C8870316}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DC105B8-4426-416F-89A5-0E95022221EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -63,9 +63,6 @@
     <t>lieu inconnu</t>
   </si>
   <si>
-    <t>Gravures du Mercure Galant</t>
-  </si>
-  <si>
     <t>Images</t>
   </si>
   <si>
@@ -96,18 +93,12 @@
     <t>Edition</t>
   </si>
   <si>
-    <t>ea287800-4345-4649-af12-7253aa185f3f</t>
-  </si>
-  <si>
     <t>7ebda3f2-cdfb-4f9c-9b86-0fb559bbfee5</t>
   </si>
   <si>
     <t>responsable (uuid)</t>
   </si>
   <si>
-    <t>MGE</t>
-  </si>
-  <si>
     <t>modélisation sémantique</t>
   </si>
   <si>
@@ -118,13 +109,28 @@
   </si>
   <si>
     <t>développement logiciel</t>
+  </si>
+  <si>
+    <t>mg_estampes</t>
+  </si>
+  <si>
+    <t>mg_musique</t>
+  </si>
+  <si>
+    <t>Gravures du Mercure Galant - estampes</t>
+  </si>
+  <si>
+    <t>Gravures du Mercure Galant - musique</t>
+  </si>
+  <si>
+    <t>684b4c1a-be76-474c-810e-0f5984b47921</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,15 +140,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -150,16 +155,29 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -200,40 +218,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,152 +578,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3CE6F2-7211-4CDF-9292-163B353D125F}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="7"/>
-    <col min="5" max="5" width="19" style="7" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="38.109375" style="7" customWidth="1"/>
-    <col min="9" max="10" width="27" style="7" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="7"/>
-    <col min="12" max="12" width="20" style="7" customWidth="1"/>
-    <col min="13" max="13" width="40.21875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="41.6640625" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="17.77734375" style="7"/>
+    <col min="1" max="1" width="13.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="2"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="38.109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="27" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" style="2"/>
+    <col min="12" max="12" width="20" style="2" customWidth="1"/>
+    <col min="13" max="13" width="40.21875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="41.6640625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="17.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-      <c r="G2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>29</v>
+      <c r="N5" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/sources/corpora_icono/collections.xlsx
+++ b/sources/corpora_icono/collections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca\Documents\GitHub\SHERLOCK\sources\corpora_icono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E9EA49-9029-4036-A813-8CE6C8870316}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8BC630-76CA-4C4F-9E62-4E13EF5283D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DC105B8-4426-416F-89A5-0E95022221EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -114,23 +114,32 @@
     <t>mg_estampes</t>
   </si>
   <si>
+    <t>684b4c1a-be76-474c-810e-0f5984b47921</t>
+  </si>
+  <si>
+    <t>684b4c1a-be76-474c-810e-0f5984b47922</t>
+  </si>
+  <si>
     <t>mg_musique</t>
   </si>
   <si>
-    <t>Gravures du Mercure Galant - estampes</t>
-  </si>
-  <si>
-    <t>Gravures du Mercure Galant - musique</t>
-  </si>
-  <si>
-    <t>684b4c1a-be76-474c-810e-0f5984b47921</t>
+    <t>Gravures du Mercure Galant</t>
+  </si>
+  <si>
+    <t>sous-collection</t>
+  </si>
+  <si>
+    <t>Estampes</t>
+  </si>
+  <si>
+    <t>Musique</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +188,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -230,9 +245,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -256,6 +268,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -578,175 +593,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3CE6F2-7211-4CDF-9292-163B353D125F}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="2"/>
-    <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="38.109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="27" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="2"/>
-    <col min="12" max="12" width="20" style="2" customWidth="1"/>
-    <col min="13" max="13" width="40.21875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="41.6640625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="17.77734375" style="2"/>
+    <col min="2" max="3" width="31.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="2"/>
+    <col min="6" max="6" width="19" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="38.109375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="27" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="2"/>
+    <col min="13" max="13" width="20" style="2" customWidth="1"/>
+    <col min="14" max="14" width="40.21875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="41.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="17.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="G2" s="5" t="s">
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="H2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:14" ht="17.55" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="3" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="H2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/sources/corpora_icono/collections.xlsx
+++ b/sources/corpora_icono/collections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca\Documents\GitHub\SHERLOCK\sources\corpora_icono\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amleth/Dropbox/CNRS/IREMUS/data-iremus/sherlock-github/sources/corpora_icono/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8BC630-76CA-4C4F-9E62-4E13EF5283D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B79A869-C9E9-A04C-9075-C0DEEFBE7600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DC105B8-4426-416F-89A5-0E95022221EB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{1DC105B8-4426-416F-89A5-0E95022221EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>collection</t>
-  </si>
-  <si>
     <t>type de collection</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>lieu de publication</t>
   </si>
   <si>
-    <t>Colonnes à ne remplir que s'il s'agit d'un livre numérisé</t>
-  </si>
-  <si>
     <t>auteur(s)/autrice(s)</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>7ebda3f2-cdfb-4f9c-9b86-0fb559bbfee5</t>
   </si>
   <si>
-    <t>responsable (uuid)</t>
-  </si>
-  <si>
     <t>modélisation sémantique</t>
   </si>
   <si>
@@ -123,23 +114,38 @@
     <t>mg_musique</t>
   </si>
   <si>
-    <t>Gravures du Mercure Galant</t>
-  </si>
-  <si>
-    <t>sous-collection</t>
-  </si>
-  <si>
-    <t>Estampes</t>
-  </si>
-  <si>
-    <t>Musique</t>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>0bb387c3-058e-44bc-aeb9-f8b8471b8ed1</t>
+  </si>
+  <si>
+    <t>759d110d-fd68-47bb-92fd-341bb63dbcae</t>
+  </si>
+  <si>
+    <t>3a0fcd6a-c226-49f4-ac11-5eff8448ee55</t>
+  </si>
+  <si>
+    <t>libellé</t>
+  </si>
+  <si>
+    <t>uuid du responsable</t>
+  </si>
+  <si>
+    <t>uuid du projet</t>
+  </si>
+  <si>
+    <t>Estampes (gravures du Mercure Galant)</t>
+  </si>
+  <si>
+    <t>Musique (gravures du Mercure Galant)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,23 +154,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,6 +184,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF49E9A6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -233,46 +230,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,187 +579,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3CE6F2-7211-4CDF-9292-163B353D125F}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="2"/>
-    <col min="6" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="38.109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="27" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" style="2"/>
-    <col min="13" max="13" width="20" style="2" customWidth="1"/>
-    <col min="14" max="14" width="40.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="41.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="17.77734375" style="2"/>
+    <col min="1" max="2" width="85.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="31.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="1"/>
+    <col min="7" max="7" width="19" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="38.1640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="27" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" style="1"/>
+    <col min="14" max="14" width="20" style="1" customWidth="1"/>
+    <col min="15" max="15" width="40.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="41.6640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="17.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="H2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="8" t="s">
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H2:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/sources/corpora_icono/collections.xlsx
+++ b/sources/corpora_icono/collections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca\Documents\GitHub\SHERLOCK\sources\corpora_icono\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amleth/Dropbox/CNRS/IREMUS/data-iremus/sherlock-github/sources/corpora_icono/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8BC630-76CA-4C4F-9E62-4E13EF5283D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4617BDF-AEDB-D34F-A67A-EC4EC7B61BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DC105B8-4426-416F-89A5-0E95022221EB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{1DC105B8-4426-416F-89A5-0E95022221EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>collection</t>
-  </si>
-  <si>
     <t>type de collection</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>lieu de publication</t>
   </si>
   <si>
-    <t>Colonnes à ne remplir que s'il s'agit d'un livre numérisé</t>
-  </si>
-  <si>
     <t>auteur(s)/autrice(s)</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>7ebda3f2-cdfb-4f9c-9b86-0fb559bbfee5</t>
   </si>
   <si>
-    <t>responsable (uuid)</t>
-  </si>
-  <si>
     <t>modélisation sémantique</t>
   </si>
   <si>
@@ -123,23 +114,38 @@
     <t>mg_musique</t>
   </si>
   <si>
-    <t>Gravures du Mercure Galant</t>
-  </si>
-  <si>
-    <t>sous-collection</t>
-  </si>
-  <si>
-    <t>Estampes</t>
-  </si>
-  <si>
-    <t>Musique</t>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>0bb387c3-058e-44bc-aeb9-f8b8471b8ed1</t>
+  </si>
+  <si>
+    <t>759d110d-fd68-47bb-92fd-341bb63dbcae</t>
+  </si>
+  <si>
+    <t>3a0fcd6a-c226-49f4-ac11-5eff8448ee55</t>
+  </si>
+  <si>
+    <t>libellé</t>
+  </si>
+  <si>
+    <t>uuid du responsable</t>
+  </si>
+  <si>
+    <t>uuid du projet</t>
+  </si>
+  <si>
+    <t>Estampes (gravures du Mercure Galant)</t>
+  </si>
+  <si>
+    <t>Musique (gravures du Mercure Galant)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,23 +154,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,6 +184,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF49E9A6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -233,46 +230,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,187 +579,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3CE6F2-7211-4CDF-9292-163B353D125F}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="2"/>
-    <col min="6" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="38.109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="27" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" style="2"/>
-    <col min="13" max="13" width="20" style="2" customWidth="1"/>
-    <col min="14" max="14" width="40.21875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="41.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="17.77734375" style="2"/>
+    <col min="1" max="2" width="85.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="31.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="1"/>
+    <col min="7" max="7" width="19" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="38.1640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="27" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" style="1"/>
+    <col min="14" max="14" width="20" style="1" customWidth="1"/>
+    <col min="15" max="15" width="40.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="41.6640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="17.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="H2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="17.55" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="8" t="s">
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="9" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H2:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
